--- a/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.2419220728376616</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08172936480195669</v>
+        <v>0.08172936480195672</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.149550709033731</v>
+        <v>0.1938320935306118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1244192742965501</v>
+        <v>0.1270137344419393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02659398252472315</v>
+        <v>0.02617496436561658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06764216616502516</v>
+        <v>0.06645408811216151</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07901542894156527</v>
+        <v>0.07341353615883886</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06431475774828244</v>
+        <v>0.06439701579137447</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1414552519992865</v>
+        <v>0.16787151469764</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1379955490253797</v>
+        <v>0.1356449369407343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0540188738456519</v>
+        <v>0.05327750192940041</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6755669239761398</v>
+        <v>0.6834938754554933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4781949660642026</v>
+        <v>0.4489346114915707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.122836263481274</v>
+        <v>0.1208642790186368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4846275700520711</v>
+        <v>0.4810855806373354</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4271595496044888</v>
+        <v>0.3980824756073763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1476739436041005</v>
+        <v>0.1527666249801401</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5167562553277947</v>
+        <v>0.5050794856293157</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3731697144931272</v>
+        <v>0.3678051225229053</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1131068032704304</v>
+        <v>0.1171626573252354</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2585368817036377</v>
+        <v>0.2471136706865404</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2652585774806464</v>
+        <v>0.2859633623224861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08828383870862054</v>
+        <v>0.09129353192157608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1958661878153936</v>
+        <v>0.2007119631125961</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2028939959946564</v>
+        <v>0.215974385913954</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09083026850291204</v>
+        <v>0.08957721517754424</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2403152032780066</v>
+        <v>0.2729137188545112</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2996884137155764</v>
+        <v>0.2900018535341631</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1015646647482969</v>
+        <v>0.1025123455436743</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6739824871842465</v>
+        <v>0.6718791782677861</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5752849631342262</v>
+        <v>0.5934253719414989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1856458548674489</v>
+        <v>0.1915694569508557</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.519169637292906</v>
+        <v>0.5262159147333505</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5716670328180756</v>
+        <v>0.5843965526232929</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1768891715683074</v>
+        <v>0.1832648959684532</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5162111377045928</v>
+        <v>0.5355571384898998</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5329551980795704</v>
+        <v>0.5416194400818924</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1699844962438013</v>
+        <v>0.168776871788819</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1830091719177397</v>
+        <v>0.1763546085244266</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1057220530385735</v>
+        <v>0.09988399110004235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.160966976234223</v>
+        <v>0.1661069427861783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1581305967136017</v>
+        <v>0.1589966432035027</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1079471289859205</v>
+        <v>0.1118689818105773</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1179967744422146</v>
+        <v>0.1130544824391592</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2100458461005402</v>
+        <v>0.2075635928662224</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1423833124413481</v>
+        <v>0.1466249836101828</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1600353509606341</v>
+        <v>0.1616107642808245</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5650307308417701</v>
+        <v>0.5900369536681443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4357564002264492</v>
+        <v>0.4270803363443038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3063188082241163</v>
+        <v>0.3201664397556402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5291059261818111</v>
+        <v>0.5463724874391906</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5157041799830571</v>
+        <v>0.5521337283329226</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2499300333806719</v>
+        <v>0.2490131003641505</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4901523424549188</v>
+        <v>0.4885716043205057</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3905971103679834</v>
+        <v>0.4077763023459767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2628601314658961</v>
+        <v>0.2627809698037135</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1799242775744585</v>
+        <v>0.179477875933212</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3024954950569307</v>
+        <v>0.2984098046810729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07299540810023487</v>
+        <v>0.07451857778600982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1635619788969779</v>
+        <v>0.1555779739837531</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2428126698940257</v>
+        <v>0.2514971281846937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06309944048931342</v>
+        <v>0.06318660642603047</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2133792171036593</v>
+        <v>0.2076862009296982</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3264833728336993</v>
+        <v>0.3223775429236712</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07935380088937449</v>
+        <v>0.07737370494337158</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4824178707657236</v>
+        <v>0.5002451892512714</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5741221337212362</v>
+        <v>0.5696787858316681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1597492319216069</v>
+        <v>0.1602146609330053</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5231388286128528</v>
+        <v>0.5203191284147364</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5868072322867288</v>
+        <v>0.5988704140287248</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1244713867442709</v>
+        <v>0.1262814756616699</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.444334957454399</v>
+        <v>0.4493977014808276</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5345025082969211</v>
+        <v>0.5372899496492425</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1295496767871248</v>
+        <v>0.1272429548707266</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2273</v>
+        <v>2946</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3843</v>
+        <v>3923</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2681</v>
+        <v>2639</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2020</v>
+        <v>1877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6810</v>
+        <v>6819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4300</v>
+        <v>5103</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7790</v>
+        <v>7657</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11167</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10269</v>
+        <v>10390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14771</v>
+        <v>13867</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12385</v>
+        <v>12187</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7366</v>
+        <v>7313</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10919</v>
+        <v>10176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15637</v>
+        <v>16177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15710</v>
+        <v>15355</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21066</v>
+        <v>20763</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23381</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6820</v>
+        <v>6519</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10479</v>
+        <v>11297</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13593</v>
+        <v>14056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7123</v>
+        <v>7300</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6832</v>
+        <v>7273</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12746</v>
+        <v>12571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15080</v>
+        <v>17125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21931</v>
+        <v>21222</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29891</v>
+        <v>30170</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17780</v>
+        <v>17724</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22727</v>
+        <v>23443</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28584</v>
+        <v>29496</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18882</v>
+        <v>19138</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19251</v>
+        <v>19680</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24823</v>
+        <v>25718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32392</v>
+        <v>33606</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39001</v>
+        <v>39635</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50027</v>
+        <v>49672</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4823</v>
+        <v>4648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3255</v>
+        <v>3075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19006</v>
+        <v>19612</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4178</v>
+        <v>4201</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2192</v>
+        <v>2271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10040</v>
+        <v>9619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11085</v>
+        <v>10954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7275</v>
+        <v>7491</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32512</v>
+        <v>32832</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14891</v>
+        <v>15550</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13417</v>
+        <v>13149</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36167</v>
+        <v>37802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13979</v>
+        <v>14435</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10470</v>
+        <v>11209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21266</v>
+        <v>21188</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25868</v>
+        <v>25784</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19956</v>
+        <v>20834</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53402</v>
+        <v>53386</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7454</v>
+        <v>7436</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17697</v>
+        <v>17458</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14453</v>
+        <v>14755</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4737</v>
+        <v>4506</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8884</v>
+        <v>9202</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12428</v>
+        <v>12445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15020</v>
+        <v>14620</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31045</v>
+        <v>30655</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31341</v>
+        <v>30559</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19987</v>
+        <v>20726</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33588</v>
+        <v>33328</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31631</v>
+        <v>31723</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15151</v>
+        <v>15069</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21470</v>
+        <v>21911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24516</v>
+        <v>24872</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31278</v>
+        <v>31634</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50826</v>
+        <v>51091</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>51167</v>
+        <v>50256</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
     </row>
     <row r="24">
